--- a/17-Discrete Choice/Logit.xlsx
+++ b/17-Discrete Choice/Logit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ean246\Desktop\EUGENE\ce599\17-Discrete Choice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9BCD3-F756-486F-805A-2C2D3B87F51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3587CF6-BF6D-4557-B095-0DB7FAF13C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Utility Equation</t>
   </si>
@@ -62,15 +62,6 @@
     <t>3+</t>
   </si>
   <si>
-    <t>U = -2.0479 + 0.3538 * NP</t>
-  </si>
-  <si>
-    <t>U = -0.0473 - 0.3538 * NP</t>
-  </si>
-  <si>
-    <t>U = -0.6709 + 0.5530 * NP</t>
-  </si>
-  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -78,19 +69,38 @@
   </si>
   <si>
     <t>Iintercept</t>
+  </si>
+  <si>
+    <t>HINCP</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U = 0.903 - 0.2148 * NP + 2.67E-05 * HINCP </t>
+  </si>
+  <si>
+    <t>U = -1.3357 - 0.6151 * NP + 3.93E-05 * HINCP</t>
+  </si>
+  <si>
+    <t>U = -3.7182 + 1.0178 * NP + 4.20E-05 * HINCP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,22 +196,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,41 +549,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -524,9 +596,9 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -539,9 +611,9 @@
         <v>6</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1">
+      <c r="G4" s="12">
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -550,17 +622,17 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <f>I4/SUM(I4,I8,I12,I16)</f>
-        <v>0.34469905871077416</v>
+        <f>I4/SUM(I4,I9,I14,I19)</f>
+        <v>0.19622576954642362</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -570,20 +642,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.67090000000000005</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.90300000000000002</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <f>E6</f>
-        <v>-0.67090000000000005</v>
+      <c r="G6" s="15">
+        <f>E6*F6</f>
+        <v>0.90300000000000002</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -593,17 +665,17 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13">
+        <v>-0.21479999999999999</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="15">
         <f>E7*F7</f>
-        <v>0.55300000000000005</v>
+        <v>-0.21479999999999999</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -612,171 +684,237 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5">
-        <f>SUM(G6:G7)</f>
-        <v>-0.1179</v>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2.673E-5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G8" s="22">
+        <f>E8*F8</f>
+        <v>0.42768</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <f>EXP(G8)</f>
-        <v>0.88878492666350717</v>
-      </c>
-      <c r="J8" s="2">
-        <f>I8/SUM(I4,I8,I12,I16)</f>
-        <v>0.30636332761723534</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="23">
+        <f>SUM(G6:G8)</f>
+        <v>1.11588</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2">
+        <f>EXP(G9)</f>
+        <v>3.0522529803196048</v>
+      </c>
+      <c r="J9" s="2">
+        <f>I9/SUM(I4,I9,I14,I19)</f>
+        <v>0.59893068991357945</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-1.3357000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <f>E11*F11</f>
+        <v>-1.3357000000000001</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E12" s="16">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <f>E12*F12</f>
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6">
-        <v>-4.7300000000000002E-2</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E13" s="17">
+        <v>3.93E-5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G13" s="25">
+        <f>E13*F13</f>
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="26">
+        <f>SUM(G11:G13)</f>
+        <v>-9.1800000000000104E-2</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <f>EXP(G14)</f>
+        <v>0.91228758881831851</v>
+      </c>
+      <c r="J14" s="4">
+        <f>I14/SUM(I4,I9,I14,I19)</f>
+        <v>0.17901433416352583</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="19">
+        <v>-3.7181999999999999</v>
+      </c>
+      <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
-        <f>E10</f>
-        <v>-4.7300000000000002E-2</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-0.14080000000000001</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="G16" s="27">
+        <f>E16*F16</f>
+        <v>-3.7181999999999999</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1.0178</v>
+      </c>
+      <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
-        <f>E11*F11</f>
-        <v>-0.14080000000000001</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7">
-        <f>SUM(G10:G11)</f>
-        <v>-0.18810000000000002</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
-        <f>EXP(G12)</f>
-        <v>0.82853184990489281</v>
-      </c>
-      <c r="J12" s="6">
-        <f>I12/SUM(I4,I8,I12,I16)</f>
-        <v>0.28559414877411299</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-2.0478999999999998</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <f>E14</f>
-        <v>-2.0478999999999998</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.3538</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <f>E15*F15</f>
-        <v>0.3538</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11">
-        <f>SUM(G14:G15)</f>
-        <v>-1.6940999999999997</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10">
-        <f>EXP(G16)</f>
-        <v>0.18376454271384296</v>
-      </c>
-      <c r="J16" s="10">
-        <f>I16/SUM(I4,I8,I12,I16)</f>
-        <v>6.3343464897877524E-2</v>
+      <c r="G17" s="27">
+        <f>E17*F17</f>
+        <v>1.0178</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="20">
+        <v>4.2039999999999997E-5</v>
+      </c>
+      <c r="F18" s="9">
+        <v>16000</v>
+      </c>
+      <c r="G18" s="28">
+        <f>E18*F18</f>
+        <v>0.6726399999999999</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="29">
+        <f>SUM(G16:G18)</f>
+        <v>-2.0277600000000002</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <f>EXP(G19)</f>
+        <v>0.13163004245658155</v>
+      </c>
+      <c r="J19" s="7">
+        <f>I19/SUM(I4,I9,I14,I19)</f>
+        <v>2.5829206376471129E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(J4,J9,J14,J19)</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
